--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -453,24 +453,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,211 +480,211 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brandon Boston Jr.</t>
+          <t>Payton Pritchard</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SG,SF,PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Brandon Boston Jr.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF,PF</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -572,7 +572,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>Dennis Schroder</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -572,7 +572,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dennis Schroder</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,24 +453,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,228 +480,228 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Brandon Boston Jr.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>Christian Braun</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SG,SF,PF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brandon Boston Jr.</t>
+          <t>Haywood Highsmith</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Miami Heat</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SG,SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Payton Pritchard</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Christian Braun</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
@@ -736,6 +736,23 @@
       <c r="C18" t="inlineStr">
         <is>
           <t>Miami Heat</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Lauri Markkanen</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SF,PF</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,48 +480,48 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,14 +531,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -548,14 +548,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brandon Boston Jr.</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
@@ -589,119 +589,119 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>Dorian Finney-Smith</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SG,SF,PF</t>
+          <t>SF,PF,C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Haywood Highsmith</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF,PF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Miami Heat</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>Brandon Boston Jr.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
@@ -736,23 +736,6 @@
       <c r="C18" t="inlineStr">
         <is>
           <t>Miami Heat</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Lauri Markkanen</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>SF,PF</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Utah Jazz</t>
         </is>
       </c>
     </row>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -521,7 +521,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
@@ -589,34 +589,34 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Dorian Finney-Smith</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF,C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dorian Finney-Smith</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SF,PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SG,SF,PF</t>
+          <t>SG,SF,PF,C</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -657,34 +657,34 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,187 +453,187 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>Christian Braun</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Brandon Boston Jr.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SG,SF,PF,C</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Christian Braun</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dorian Finney-Smith</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SF,PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Miami Heat</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SG,SF,PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,41 +667,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brandon Boston Jr.</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
@@ -719,23 +719,6 @@
       <c r="C17" t="inlineStr">
         <is>
           <t>New Orleans Pelicans</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Jimmy Butler</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SF,PF</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Miami Heat</t>
         </is>
       </c>
     </row>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -453,97 +453,97 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>Brandon Boston Jr.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Christian Braun</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SG,SF,PF,C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brandon Boston Jr.</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -555,41 +555,41 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SG,SF,PF,C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -599,41 +599,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Miami Heat</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Miami Heat</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
@@ -657,51 +657,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Christian Braun</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -453,102 +453,102 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brandon Boston Jr.</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SG,SF,PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
@@ -572,68 +572,68 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Brandon Boston Jr.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Miami Heat</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Miami Heat</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Christian Braun</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,41 +667,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG,SF,PF,C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Christian Braun</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -453,177 +453,177 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Brandon Boston Jr.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Christian Braun</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brandon Boston Jr.</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -633,75 +633,75 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Miami Heat</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SG,SF,PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Miami Heat</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Christian Braun</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SG,SF,PF,C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,68 +453,68 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>Dalano Banton</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brandon Boston Jr.</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
@@ -555,126 +555,126 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF,PF,C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Brandon Boston Jr.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -684,24 +684,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Miami Heat</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SG,SF,PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Miami Heat</t>
         </is>
       </c>
     </row>
@@ -719,6 +719,23 @@
       <c r="C17" t="inlineStr">
         <is>
           <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Joel Embiid</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,75 +463,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dalano Banton</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Miami Heat</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Guerschon Yabusele</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Andre Drummond</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Christian Braun</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
@@ -555,143 +555,143 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Christian Braun</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SG,SF,PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF,PF,C</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Brandon Boston Jr.</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Brandon Boston Jr.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Miami Heat</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
@@ -736,6 +736,23 @@
       <c r="C18" t="inlineStr">
         <is>
           <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jordan Poole</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PG,SG</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,75 +463,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Dalano Banton</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Miami Heat</t>
+          <t>Portland Trail Blazers</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Guerschon Yabusele</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Andre Drummond</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Christian Braun</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
@@ -555,143 +555,143 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Christian Braun</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF,PF,C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SG,SF,PF,C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>Brandon Boston Jr.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Brandon Boston Jr.</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Miami Heat</t>
         </is>
       </c>
     </row>
@@ -736,23 +736,6 @@
       <c r="C18" t="inlineStr">
         <is>
           <t>Philadelphia 76ers</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Jordan Poole</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PG,SG</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Washington Wizards</t>
         </is>
       </c>
     </row>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,24 +453,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dalano Banton</t>
+          <t>Christian Braun</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,92 +480,92 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Portland Trail Blazers</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Christian Braun</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Brandon Boston Jr.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
@@ -589,119 +589,119 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Miami Heat</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>Andre Drummond</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Brandon Boston Jr.</t>
+          <t>Guerschon Yabusele</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Miami Heat</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
@@ -736,6 +736,23 @@
       <c r="C18" t="inlineStr">
         <is>
           <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jordan Poole</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PG,SG</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,7 +589,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>CJ McCollum</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -599,48 +599,48 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Davion Mitchell</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Miami Heat</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Andre Drummond</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,24 +650,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Miami Heat</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Guerschon Yabusele</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
@@ -708,49 +708,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CJ McCollum</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
-        <is>
-          <t>Philadelphia 76ers</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Jordan Poole</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PG,SG</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>Washington Wizards</t>
         </is>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -453,92 +453,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Christian Braun</t>
+          <t>Stephon Castle</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>CJ McCollum</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -548,109 +548,109 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Miami Heat</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brandon Boston Jr.</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>Christian Braun</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SG,SF,PF,C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CJ McCollum</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Davion Mitchell</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF,PF,C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Keyonte George</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Miami Heat</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
@@ -674,34 +674,34 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Malcolm Brogdon</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -470,75 +470,75 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Stephon Castle</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Chicago Bulls</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dennis Schröder</t>
+          <t>Malcolm Brogdon</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Washington Wizards</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CJ McCollum</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Miami Heat</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -548,14 +548,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Miami Heat</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -565,58 +565,58 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Christian Braun</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG,SF,PF,C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jalen Williams</t>
+          <t>Stephon Castle</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SG,SF,PF,C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>CJ McCollum</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,48 +650,48 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Christian Braun</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Malcolm Brogdon</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -725,17 +725,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Utah Jazz</t>
         </is>
       </c>
     </row>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,115 +25,112 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Malcolm Brogdon</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
     <t>Jalen Williams</t>
   </si>
   <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
     <t>Christian Braun</t>
   </si>
   <si>
-    <t>Malcolm Brogdon</t>
-  </si>
-  <si>
-    <t>Stephon Castle</t>
+    <t>Joel Embiid</t>
   </si>
   <si>
     <t>Dennis Schröder</t>
   </si>
   <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
 </sst>
 </file>
@@ -524,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -535,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,7 +557,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +634,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +645,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,10 +686,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,10 +25,40 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
     <t>Jordan Poole</t>
   </si>
   <si>
-    <t>Kyrie Irving</t>
+    <t>Jonas Valanciunas</t>
   </si>
   <si>
     <t>Malcolm Brogdon</t>
@@ -37,45 +67,18 @@
     <t>Tobias Harris</t>
   </si>
   <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Jonas Valanciunas</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
     <t>Zach LaVine</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
     <t>Joel Embiid</t>
   </si>
   <si>
     <t>Dennis Schröder</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -85,46 +88,43 @@
     <t>PF,C</t>
   </si>
   <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Washington Wizards</t>
   </si>
   <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
     <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
@@ -521,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -532,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,7 +546,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,7 +557,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,7 +601,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,7 +623,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -642,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -675,7 +675,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -686,7 +686,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,54 +28,51 @@
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Yves Missi</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Jonas Valanciunas</t>
-  </si>
-  <si>
-    <t>Malcolm Brogdon</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -91,46 +88,46 @@
     <t>SG,SF,PF,C</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
     <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
 </sst>
 </file>
@@ -488,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -521,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,10 +529,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,7 +543,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,7 +554,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,10 +562,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,7 +598,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,7 +609,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +617,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +628,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -653,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -664,7 +661,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -675,21 +672,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,51 +28,54 @@
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
     <t>Keyonte George</t>
   </si>
   <si>
+    <t>T.J. McConnell</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Kris Dunn</t>
+  </si>
+  <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
+    <t>Joel Embiid</t>
   </si>
   <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Yves Missi</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
@@ -91,43 +97,46 @@
     <t>C</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
     <t>Utah Jazz</t>
   </si>
   <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Toronto Raptors</t>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
   </si>
 </sst>
 </file>
@@ -485,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -518,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -529,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -540,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,7 +563,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -562,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -573,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,7 +607,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,7 +618,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -617,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -628,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -639,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -650,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -661,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -672,10 +681,21 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -31,69 +31,66 @@
     <t>Jordan Poole</t>
   </si>
   <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>T.J. McConnell</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
     <t>Keyonte George</t>
   </si>
   <si>
-    <t>T.J. McConnell</t>
-  </si>
-  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Kris Dunn</t>
-  </si>
-  <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
     <t>Joel Embiid</t>
   </si>
   <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
+    <t>SG,SF,PF,C</t>
   </si>
   <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -103,40 +100,37 @@
     <t>Washington Wizards</t>
   </si>
   <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
     <t>Utah Jazz</t>
   </si>
   <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
     <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
   </si>
 </sst>
 </file>
@@ -494,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,7 +546,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -593,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -604,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,21 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,106 +25,106 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Brandon Boston Jr.</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
     <t>Dennis Schröder</t>
   </si>
   <si>
-    <t>T.J. McConnell</t>
-  </si>
-  <si>
     <t>Tobias Harris</t>
   </si>
   <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
     <t>Joel Embiid</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
@@ -513,7 +513,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -532,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -543,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -620,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,7 +675,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,52 +25,58 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Brandon Boston Jr.</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
     <t>Keyonte George</t>
   </si>
   <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Brandon Boston Jr.</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
+    <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
@@ -79,55 +85,55 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
     <t>Utah Jazz</t>
   </si>
   <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
     <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
@@ -488,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -521,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,7 +541,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -543,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,10 +681,21 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,54 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Brandon Boston Jr.</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
     <t>RJ Barrett</t>
   </si>
   <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Brandon Boston Jr.</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
@@ -82,61 +79,58 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
 </sst>
 </file>
@@ -494,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +568,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,7 +579,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,7 +590,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,7 +601,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +653,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -670,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,21 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,48 +25,48 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Brandon Boston Jr.</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
     <t>Dennis Schröder</t>
   </si>
   <si>
     <t>CJ McCollum</t>
   </si>
   <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Brandon Boston Jr.</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
     <t>RJ Barrett</t>
   </si>
   <si>
@@ -82,52 +82,52 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -568,7 +568,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,7 +579,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,7 +590,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -609,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,7 +645,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,7 +656,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -675,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,112 +25,112 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Brandon Boston Jr.</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
     <t>Zach LaVine</t>
   </si>
   <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Brandon Boston Jr.</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
     <t>Dennis Schröder</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
 </sst>
 </file>
@@ -543,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -675,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,112 +25,112 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Brandon Boston Jr.</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
     <t>RJ Barrett</t>
   </si>
   <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
     <t>Tobias Harris</t>
   </si>
   <si>
-    <t>Brandon Boston Jr.</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
+    <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -546,7 +546,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -576,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -587,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -598,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -620,7 +620,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -631,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -642,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,7 +653,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -664,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,39 +25,42 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>T.J. McConnell</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
     <t>Dennis Schröder</t>
   </si>
   <si>
     <t>Jordan Poole</t>
   </si>
   <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
-    <t>Brandon Boston Jr.</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
@@ -67,34 +70,46 @@
     <t>RJ Barrett</t>
   </si>
   <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
     <t>Tobias Harris</t>
   </si>
   <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -103,28 +118,13 @@
     <t>Washington Wizards</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -513,7 +513,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,7 +524,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,7 +546,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,7 +557,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,7 +568,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,7 +579,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,7 +601,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,7 +675,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,109 +25,109 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>T.J. McConnell</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
     <t>Jalen Williams</t>
   </si>
   <si>
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
-    <t>T.J. McConnell</t>
-  </si>
-  <si>
     <t>Keyonte George</t>
   </si>
   <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
     <t>Tobias Harris</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
@@ -524,7 +524,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -543,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,7 +675,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,112 +25,112 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Terry Rozier</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
     <t>T.J. McConnell</t>
   </si>
   <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
     <t>Jordan Poole</t>
   </si>
   <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
+    <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
     <t>Dennis Schröder</t>
   </si>
   <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF,C</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
     <t>Washington Wizards</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,7 +524,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -543,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,7 +590,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Terry Rozier</t>
   </si>
   <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
@@ -46,7 +49,7 @@
     <t>John Collins</t>
   </si>
   <si>
-    <t>T.J. McConnell</t>
+    <t>Kevin Porter Jr.</t>
   </si>
   <si>
     <t>Jalen Williams</t>
@@ -55,21 +58,21 @@
     <t>Tobias Harris</t>
   </si>
   <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
     <t>Joel Embiid</t>
   </si>
   <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
     <t>Dennis Schröder</t>
   </si>
   <si>
@@ -109,7 +112,7 @@
     <t>Toronto Raptors</t>
   </si>
   <si>
-    <t>Indiana Pacers</t>
+    <t>LA Clippers</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
@@ -118,16 +121,16 @@
     <t>Detroit Pistons</t>
   </si>
   <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
     <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
@@ -488,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,10 +513,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -521,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -543,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -579,7 +582,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,7 +601,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -609,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -620,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -631,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -642,7 +645,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -653,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -664,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,10 +678,21 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,79 +25,94 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Terry Rozier</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>Kevin Porter Jr.</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
     <t>Keyonte George</t>
   </si>
   <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Terry Rozier</t>
-  </si>
-  <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
   </si>
   <si>
     <t>RJ Barrett</t>
   </si>
   <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Kevin Porter Jr.</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
   </si>
   <si>
     <t>Utah Jazz</t>
@@ -106,34 +121,19 @@
     <t>Chicago Bulls</t>
   </si>
   <si>
-    <t>Miami Heat</t>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -623,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -689,7 +689,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,109 +25,103 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Terry Rozier</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Dereck Lively II</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
-    <t>Terry Rozier</t>
-  </si>
-  <si>
     <t>Jalen Williams</t>
   </si>
   <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
-    <t>Kevin Porter Jr.</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
     <t>Joel Embiid</t>
   </si>
   <si>
     <t>RJ Barrett</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>PG</t>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
     <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
@@ -491,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,10 +529,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -579,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -590,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -601,10 +595,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +606,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +620,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +631,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +639,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +650,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +661,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,18 +675,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,7 +25,16 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Dennis Schröder</t>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Kevin Huerter</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
   </si>
   <si>
     <t>Jordan Poole</t>
@@ -34,57 +43,51 @@
     <t>Terry Rozier</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
     <t>Zach LaVine</t>
   </si>
   <si>
     <t>Tobias Harris</t>
   </si>
   <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Dereck Lively II</t>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
   </si>
   <si>
     <t>Keyonte George</t>
   </si>
   <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
@@ -94,10 +97,16 @@
     <t>SG,SF,PF,C</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Washington Wizards</t>
@@ -106,12 +115,12 @@
     <t>Miami Heat</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
     <t>Utah Jazz</t>
   </si>
   <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
@@ -122,12 +131,6 @@
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -551,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -562,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -573,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -584,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -595,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -606,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -617,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -628,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,7 +645,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -650,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -661,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -672,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,58 +25,70 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
     <t>Christian Braun</t>
   </si>
   <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Terry Rozier</t>
+  </si>
+  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
     <t>Kevin Huerter</t>
   </si>
   <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Terry Rozier</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
     <t>Keyonte George</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PG,SG</t>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
@@ -85,52 +97,40 @@
     <t>PG</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -532,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -543,7 +543,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -565,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -587,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -620,7 +620,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -631,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -642,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -675,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -40,34 +40,34 @@
     <t>Zach LaVine</t>
   </si>
   <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
     <t>Jalen Williams</t>
   </si>
   <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Jusuf Nurkic</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
   </si>
   <si>
     <t>John Collins</t>
   </si>
   <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Terry Rozier</t>
-  </si>
-  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
-    <t>Kevin Huerter</t>
+    <t>Draymond Green</t>
   </si>
   <si>
     <t>Keyonte George</t>
@@ -79,24 +79,21 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
-    <t>SF,PF</t>
+    <t>C</t>
   </si>
   <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
     <t>Chicago Bulls</t>
   </si>
   <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
     <t>Utah Jazz</t>
   </si>
   <si>
@@ -121,16 +121,16 @@
     <t>Philadelphia 76ers</t>
   </si>
   <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
     <t>Miami Heat</t>
   </si>
   <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Sacramento Kings</t>
+    <t>Golden State Warriors</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,7 +524,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,7 +535,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,7 +546,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,7 +557,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,7 +568,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -601,7 +601,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -620,7 +620,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -631,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -642,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,112 +25,112 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
-    <t>Jordan Poole</t>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
   </si>
   <si>
     <t>Christian Braun</t>
   </si>
   <si>
-    <t>Kyrie Irving</t>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
   </si>
   <si>
     <t>Zach LaVine</t>
   </si>
   <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
     <t>RJ Barrett</t>
   </si>
   <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Jusuf Nurkic</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
-    <t>Washington Wizards</t>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>Dallas Mavericks</t>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
   </si>
   <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -521,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,7 +535,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -543,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -587,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,7 +612,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,7 +620,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -631,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -642,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,7 +653,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -664,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,10 +675,21 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
-        <v>32</v>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,57 +25,57 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
     <t>Jordan Poole</t>
   </si>
   <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Christian Braun</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Andrew Nembhard</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -97,40 +97,40 @@
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
     <t>Washington Wizards</t>
   </si>
   <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
     <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -535,7 +535,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -543,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -565,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,7 +642,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -653,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -686,7 +686,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,112 +25,109 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Andrew Nembhard</t>
+  </si>
+  <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
     <t>Jalen Williams</t>
   </si>
   <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
   </si>
   <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Christian Braun</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Andrew Nembhard</t>
-  </si>
-  <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
     <t>Utah Jazz</t>
   </si>
   <si>
     <t>Washington Wizards</t>
   </si>
   <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
     <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
   </si>
 </sst>
 </file>
@@ -532,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -554,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,10 +562,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,7 +595,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -609,7 +606,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -631,7 +628,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -645,7 +642,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -664,10 +661,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,7 +675,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -686,10 +683,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,51 +25,54 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
     <t>Andrew Nembhard</t>
   </si>
   <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
   </si>
   <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
     <t>RJ Barrett</t>
   </si>
   <si>
@@ -97,31 +100,31 @@
     <t>SG,SF,PF</t>
   </si>
   <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -485,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -521,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,7 +535,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -543,7 +546,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -551,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -562,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -573,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -584,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -595,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -606,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -617,7 +620,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -628,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -639,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -650,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -661,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -672,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -683,10 +686,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -28,54 +28,54 @@
     <t>Spencer Dinwiddie</t>
   </si>
   <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
+    <t>Andrew Nembhard</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
     <t>Jordan Poole</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
-    <t>Andrew Nembhard</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
@@ -85,49 +85,49 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
     <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Miami Heat</t>
@@ -521,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -543,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,7 +620,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -631,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -656,7 +656,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -678,7 +678,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -686,10 +686,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -697,7 +697,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,54 +25,54 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Spencer Dinwiddie</t>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
   </si>
   <si>
     <t>Quentin Grimes</t>
   </si>
   <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
+    <t>Zach LaVine</t>
   </si>
   <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
-    <t>Jalen Williams</t>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Andrew Nembhard</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
   </si>
   <si>
     <t>John Collins</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
-    <t>Keyonte George</t>
-  </si>
-  <si>
-    <t>Andrew Nembhard</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
@@ -82,55 +82,61 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
+    <t>Chicago Bulls</t>
   </si>
   <si>
     <t>Utah Jazz</t>
   </si>
   <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
+    <t>Portland Trail Blazers</t>
   </si>
 </sst>
 </file>
@@ -513,7 +519,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,7 +530,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -543,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,7 +618,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,7 +640,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,7 +651,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,10 +681,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,7 +695,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -697,10 +703,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,118 +25,118 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Guerschon Yabusele</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Andrew Nembhard</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
     <t>Jordan Poole</t>
   </si>
   <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>Jose Alvarado</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Andrew Nembhard</t>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>John Collins</t>
   </si>
   <si>
     <t>Joel Embiid</t>
   </si>
   <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
   </si>
   <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
     <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,7 +552,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -582,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -593,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -604,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -637,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -659,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,7 +673,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +681,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,10 +703,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,48 +25,48 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Jose Alvarado</t>
+    <t>Andrew Nembhard</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Jaylin Williams</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Cason Wallace</t>
+  </si>
+  <si>
+    <t>Isaiah Stewart</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
   </si>
   <si>
     <t>RJ Barrett</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>Guerschon Yabusele</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>Andrew Nembhard</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
@@ -79,64 +79,61 @@
     <t>Jimmy Butler</t>
   </si>
   <si>
-    <t>PG</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
     <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
   </si>
 </sst>
 </file>
@@ -519,7 +516,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -560,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -571,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,7 +604,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +689,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,10 +700,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,112 +25,112 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Jaylin Williams</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Cason Wallace</t>
+  </si>
+  <si>
+    <t>Isaiah Stewart</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
     <t>Andrew Nembhard</t>
   </si>
   <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
     <t>Toumani Camara</t>
   </si>
   <si>
     <t>Tobias Harris</t>
   </si>
   <si>
-    <t>Jaylin Williams</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Cason Wallace</t>
-  </si>
-  <si>
-    <t>Isaiah Stewart</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
     <t>John Collins</t>
   </si>
   <si>
     <t>Joel Embiid</t>
   </si>
   <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
     <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -568,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -579,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -601,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +615,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -634,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -645,7 +645,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -656,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -667,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,10 +689,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -700,10 +700,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,10 +25,37 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Andrew Nembhard</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Isaiah Stewart</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
+    <t>Cason Wallace</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Jaylin Williams</t>
   </si>
   <si>
     <t>Shai Gilgeous-Alexander</t>
@@ -40,36 +67,9 @@
     <t>RJ Barrett</t>
   </si>
   <si>
-    <t>Jaylin Williams</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
     <t>Jalen Williams</t>
   </si>
   <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>Cason Wallace</t>
-  </si>
-  <si>
-    <t>Isaiah Stewart</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Andrew Nembhard</t>
-  </si>
-  <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
@@ -82,30 +82,45 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
@@ -113,21 +128,6 @@
   </si>
   <si>
     <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
   </si>
   <si>
     <t>Utah Jazz</t>
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -560,7 +560,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -590,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -645,7 +645,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -667,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -689,7 +689,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Cason Wallace</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Robert Williams III</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Isaiah Stewart</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
     <t>Andrew Nembhard</t>
   </si>
   <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>Isaiah Stewart</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Cason Wallace</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Jaylin Williams</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
     <t>RJ Barrett</t>
   </si>
   <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
@@ -82,49 +82,49 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SG,SF</t>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
@@ -535,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,7 +549,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,7 +560,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -579,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -689,7 +689,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
@@ -700,7 +700,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Trayce Jackson-Davis</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
     <t>Jordan Poole</t>
   </si>
   <si>
-    <t>Cason Wallace</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
     <t>Jalen Williams</t>
   </si>
   <si>
-    <t>Robert Williams III</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Isaiah Stewart</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Andrew Nembhard</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
@@ -91,43 +91,43 @@
     <t>PF,C</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
     <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Utah Jazz</t>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -579,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +659,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -700,7 +700,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>Trayce Jackson-Davis</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Spencer Dinwiddie</t>
-  </si>
-  <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
     <t>Zach LaVine</t>
   </si>
   <si>
     <t>Tobias Harris</t>
   </si>
   <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>Trayce Jackson-Davis</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
@@ -82,52 +82,52 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
     <t>Chicago Bulls</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
   </si>
   <si>
     <t>Utah Jazz</t>
@@ -524,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -535,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -579,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,7 +601,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -623,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -634,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Trayce Jackson-Davis</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
     <t>Jordan Poole</t>
   </si>
   <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
     <t>RJ Barrett</t>
   </si>
   <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
     <t>Nikola Jovic</t>
   </si>
   <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>Spencer Dinwiddie</t>
-  </si>
-  <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
-    <t>Trayce Jackson-Davis</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
     <t>Zach LaVine</t>
   </si>
   <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
@@ -82,52 +82,52 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF,C</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
     <t>Washington Wizards</t>
   </si>
   <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
     <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Utah Jazz</t>
@@ -524,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -557,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -678,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,6 +28,12 @@
     <t>CJ McCollum</t>
   </si>
   <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
@@ -37,48 +43,39 @@
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Jalen Williams</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
     <t>Tobias Harris</t>
   </si>
   <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>Trayce Jackson-Davis</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Spencer Dinwiddie</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
+    <t>Joel Embiid</t>
   </si>
   <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -91,18 +88,21 @@
     <t>PF,C</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>SG,SF,PF,C</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
@@ -112,25 +112,22 @@
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
     <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
@@ -491,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,7 +535,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -645,7 +642,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -656,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -678,7 +675,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -689,21 +686,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,48 +28,48 @@
     <t>CJ McCollum</t>
   </si>
   <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
     <t>Toumani Camara</t>
   </si>
   <si>
     <t>Jerami Grant</t>
   </si>
   <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
     <t>Jalen Williams</t>
   </si>
   <si>
-    <t>Spencer Dinwiddie</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
     <t>Joel Embiid</t>
   </si>
   <si>
@@ -85,10 +85,13 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
+    <t>PG</t>
   </si>
   <si>
     <t>SG,SF,PF,C</t>
@@ -100,34 +103,37 @@
     <t>New Orleans Pelicans</t>
   </si>
   <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
     <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
@@ -513,7 +519,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -521,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -543,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,7 +618,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,7 +629,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,10 +681,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,7 +695,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -37,45 +37,45 @@
     <t>Lauri Markkanen</t>
   </si>
   <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
     <t>Tobias Harris</t>
   </si>
   <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Jalen Williams</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -94,9 +94,6 @@
     <t>PG</t>
   </si>
   <si>
-    <t>SG,SF,PF,C</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -112,31 +109,34 @@
     <t>Utah Jazz</t>
   </si>
   <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
     <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,7 +530,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,7 +541,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,7 +552,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,7 +662,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +670,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -681,10 +681,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,7 +695,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -28,42 +28,42 @@
     <t>CJ McCollum</t>
   </si>
   <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
     <t>Dennis Schröder</t>
   </si>
   <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
     <t>Toumani Camara</t>
   </si>
   <si>
@@ -82,52 +82,52 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>PF,C</t>
+    <t>C</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
@@ -563,7 +563,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +574,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,7 +585,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,7 +607,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,7 +618,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,7 +640,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -681,7 +681,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,118 +25,127 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Eric Gordon</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
   </si>
   <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
     <t>John Collins</t>
   </si>
   <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>Utah Jazz</t>
   </si>
   <si>
     <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
   </si>
 </sst>
 </file>
@@ -494,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +525,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +536,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,7 +561,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,7 +572,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +583,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,7 +594,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +657,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +701,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
     <t>Dennis Schröder</t>
   </si>
   <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
     <t>Tobias Harris</t>
   </si>
   <si>
     <t>RJ Barrett</t>
   </si>
   <si>
-    <t>Eric Gordon</t>
-  </si>
-  <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
     <t>Zach LaVine</t>
   </si>
   <si>
@@ -82,70 +82,73 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF,PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>PG</t>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
     <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -547,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -558,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -569,10 +572,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -657,7 +660,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -668,7 +671,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -679,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -690,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
@@ -701,10 +704,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,10 +715,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,130 +25,130 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
     <t>Jordan Poole</t>
   </si>
   <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
     <t>Mike Conley</t>
   </si>
   <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>PG,SG,SF</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
   </si>
   <si>
     <t>Washington Wizards</t>
   </si>
   <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
     <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -572,10 +572,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -630,7 +630,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -671,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,10 +693,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,10 +704,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -715,10 +715,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,49 +25,49 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Dennis Schröder</t>
+    <t>Jordan Poole</t>
   </si>
   <si>
     <t>Jamal Murray</t>
   </si>
   <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>RJ Barrett</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>Toumani Camara</t>
+    <t>Jose Alvarado</t>
   </si>
   <si>
     <t>Zach LaVine</t>
@@ -82,64 +82,55 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
+    <t>Washington Wizards</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
     <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
   </si>
   <si>
     <t>Chicago Bulls</t>
@@ -531,7 +522,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -542,7 +533,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -553,7 +544,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -572,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -597,7 +588,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -660,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,10 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -715,10 +706,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,121 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Luke Kennard</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
     <t>Jordan Poole</t>
   </si>
   <si>
     <t>Jamal Murray</t>
   </si>
   <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>Grayson Allen</t>
-  </si>
-  <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
-    <t>Tobias Harris</t>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
   </si>
   <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
-    <t>Jose Alvarado</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
     <t>Washington Wizards</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Detroit Pistons</t>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -541,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -552,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -596,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -651,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -662,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +676,7 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +684,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -695,7 +695,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -706,7 +706,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jose Alvarado</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
     <t>Luke Kennard</t>
   </si>
   <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
     <t>Tobias Harris</t>
   </si>
   <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
     <t>John Collins</t>
   </si>
   <si>
+    <t>Wendell Carter Jr.</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
     <t>Bam Adebayo</t>
   </si>
   <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
     <t>Nikola Jovic</t>
   </si>
   <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Jose Alvarado</t>
-  </si>
-  <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
     <t>Zach LaVine</t>
   </si>
   <si>
@@ -79,25 +79,31 @@
     <t>Kyrie Irving</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>PG</t>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
   </si>
   <si>
     <t>Memphis Grizzlies</t>
@@ -106,40 +112,31 @@
     <t>Detroit Pistons</t>
   </si>
   <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
     <t>Utah Jazz</t>
   </si>
   <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
     <t>Miami Heat</t>
   </si>
   <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
+    <t>Sacramento Kings</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
   </si>
 </sst>
 </file>
@@ -541,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -552,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -574,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -585,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -607,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -629,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -640,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -651,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -662,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,7 +670,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -695,7 +692,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -706,10 +703,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,118 +25,109 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Jose Alvarado</t>
+    <t>Jordan Poole</t>
   </si>
   <si>
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
-    <t>Luke Kennard</t>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
   </si>
   <si>
     <t>CJ McCollum</t>
   </si>
   <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Wendell Carter Jr.</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
     <t>Jamal Murray</t>
   </si>
   <si>
-    <t>Quentin Grimes</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
     <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
 </sst>
 </file>
@@ -494,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +529,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -560,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,10 +562,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +595,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +606,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +617,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +628,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +639,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +650,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +661,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,31 +672,9 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
         <v>37</v>
       </c>
     </row>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,70 +25,82 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Gradey Dick</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
     <t>Jordan Poole</t>
   </si>
   <si>
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
   </si>
   <si>
     <t>John Collins</t>
   </si>
   <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Nikola Jovic</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Washington Wizards</t>
@@ -97,34 +109,25 @@
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Utah Jazz</t>
   </si>
   <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
     <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
@@ -518,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -529,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -540,7 +543,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -551,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -562,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -573,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -595,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -606,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -617,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -628,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,7 +645,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -650,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -661,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -672,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,9 +25,36 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
     <t>Tobias Harris</t>
   </si>
   <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
     <t>Kyle Kuzma</t>
   </si>
   <si>
@@ -37,63 +64,57 @@
     <t>Joel Embiid</t>
   </si>
   <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
+    <t>Matas Buzelis</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
   </si>
   <si>
     <t>CJ McCollum</t>
   </si>
   <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>John Collins</t>
+    <t>PG,SG</t>
   </si>
   <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>PF,C</t>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
     <t>Milwaukee Bucks</t>
   </si>
   <si>
@@ -103,34 +124,13 @@
     <t>Philadelphia 76ers</t>
   </si>
   <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -532,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -543,7 +543,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -554,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -565,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -576,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -587,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,7 +645,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -58,18 +58,18 @@
     <t>Kyle Kuzma</t>
   </si>
   <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
     <t>Gradey Dick</t>
   </si>
   <si>
+    <t>Matas Buzelis</t>
+  </si>
+  <si>
     <t>Joel Embiid</t>
   </si>
   <si>
-    <t>Matas Buzelis</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
@@ -118,16 +118,16 @@
     <t>Milwaukee Bucks</t>
   </si>
   <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
     <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
@@ -631,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -642,7 +642,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -25,42 +25,45 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
     <t>Jordan Poole</t>
   </si>
   <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
     <t>Gradey Dick</t>
   </si>
   <si>
@@ -70,9 +73,6 @@
     <t>Joel Embiid</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -91,36 +91,39 @@
     <t>C</t>
   </si>
   <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
     <t>Washington Wizards</t>
   </si>
   <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
@@ -128,9 +131,6 @@
   </si>
   <si>
     <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -554,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -565,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,7 +620,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -631,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -642,7 +642,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -653,7 +653,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -675,7 +675,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -31,48 +31,54 @@
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
+    <t>Spencer Dinwiddie</t>
+  </si>
+  <si>
+    <t>Davion Mitchell</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Gradey Dick</t>
+  </si>
+  <si>
+    <t>Matas Buzelis</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Gradey Dick</t>
-  </si>
-  <si>
-    <t>Matas Buzelis</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -100,13 +106,13 @@
     <t>Dallas Mavericks</t>
   </si>
   <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
     <t>Utah Jazz</t>
   </si>
   <si>
     <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
   </si>
   <si>
     <t>Los Angeles Lakers</t>
@@ -488,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -521,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -543,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,7 +596,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,7 +684,29 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -37,18 +37,18 @@
     <t>Davion Mitchell</t>
   </si>
   <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
     <t>Kyle Kuzma</t>
   </si>
   <si>
@@ -85,12 +85,12 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
@@ -109,13 +109,13 @@
     <t>Miami Heat</t>
   </si>
   <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
     <t>Utah Jazz</t>
   </si>
   <si>
     <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
   </si>
   <si>
     <t>Milwaukee Bucks</t>
@@ -585,7 +585,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,7 +596,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -648,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -681,7 +681,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -703,10 +703,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -37,42 +37,42 @@
     <t>Davion Mitchell</t>
   </si>
   <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Gradey Dick</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Matas Buzelis</t>
+  </si>
+  <si>
     <t>Rui Hachimura</t>
   </si>
   <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Gradey Dick</t>
-  </si>
-  <si>
-    <t>Matas Buzelis</t>
-  </si>
-  <si>
     <t>Joel Embiid</t>
   </si>
   <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
@@ -85,15 +85,15 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -109,31 +109,31 @@
     <t>Miami Heat</t>
   </si>
   <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
     <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
@@ -593,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,7 +607,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,7 +640,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,7 +662,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +681,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -706,7 +706,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Spencer Dinwiddie</t>
   </si>
   <si>
-    <t>Davion Mitchell</t>
+    <t>Kyrie Irving</t>
   </si>
   <si>
     <t>Lauri Markkanen</t>
@@ -73,9 +73,6 @@
     <t>Joel Embiid</t>
   </si>
   <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
@@ -106,19 +103,19 @@
     <t>Dallas Mavericks</t>
   </si>
   <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
     <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
@@ -494,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +513,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,21 +689,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,54 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Spencer Dinwiddie</t>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Kris Dunn</t>
+  </si>
+  <si>
+    <t>Andrew Nembhard</t>
   </si>
   <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
     <t>Kyle Kuzma</t>
   </si>
   <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Gradey Dick</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Matas Buzelis</t>
-  </si>
-  <si>
     <t>Rui Hachimura</t>
   </si>
   <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>SF,PF</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
@@ -94,46 +88,46 @@
     <t>C</t>
   </si>
   <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
-    <t>Oklahoma City Thunder</t>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
     <t>Milwaukee Bucks</t>
   </si>
   <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
     <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
 </sst>
 </file>
@@ -491,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,10 +529,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,10 +562,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +595,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +606,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +617,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +628,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +639,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +650,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +661,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,20 +672,9 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,54 +25,57 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
+    <t>Moses Moody</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
+    <t>Cason Wallace</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
     <t>Jordan Poole</t>
   </si>
   <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
+    <t>Zach LaVine</t>
   </si>
   <si>
     <t>Tobias Harris</t>
   </si>
   <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Kris Dunn</t>
-  </si>
-  <si>
-    <t>Andrew Nembhard</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -88,46 +91,46 @@
     <t>C</t>
   </si>
   <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
     <t>Washington Wizards</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
+    <t>Sacramento Kings</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
     <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -518,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -529,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -540,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -551,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -562,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,7 +579,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -595,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,7 +612,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -617,7 +620,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -628,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -639,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -650,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -661,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -672,10 +675,21 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="s">
-        <v>29</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,54 +28,57 @@
     <t>Jamal Murray</t>
   </si>
   <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Cason Wallace</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Jaylen Clark</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
     <t>Kyle Kuzma</t>
   </si>
   <si>
+    <t>Moses Moody</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
     <t>Rui Hachimura</t>
   </si>
   <si>
-    <t>Moses Moody</t>
-  </si>
-  <si>
-    <t>Royce O'Neale</t>
-  </si>
-  <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>Cason Wallace</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -88,49 +91,55 @@
     <t>PF,C</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
     <t>Milwaukee Bucks</t>
   </si>
   <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
     <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
 </sst>
 </file>
@@ -488,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -521,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -554,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,7 +577,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -609,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -620,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,7 +654,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,7 +676,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,7 +687,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -686,10 +695,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,82 +25,91 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Jaylen Clark</t>
+  </si>
+  <si>
+    <t>Cason Wallace</t>
+  </si>
+  <si>
     <t>Jamal Murray</t>
   </si>
   <si>
-    <t>Shai Gilgeous-Alexander</t>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Kris Dunn</t>
   </si>
   <si>
     <t>CJ McCollum</t>
   </si>
   <si>
-    <t>Cason Wallace</t>
-  </si>
-  <si>
     <t>Tobias Harris</t>
   </si>
   <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
+    <t>Kyshawn George</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
-    <t>Royce O'Neale</t>
-  </si>
-  <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Jaylen Clark</t>
-  </si>
-  <si>
     <t>Jordan Poole</t>
   </si>
   <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Moses Moody</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>Oklahoma City Thunder</t>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
@@ -109,34 +118,19 @@
     <t>Detroit Pistons</t>
   </si>
   <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
     <t>Utah Jazz</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
     <t>Washington Wizards</t>
   </si>
   <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
     <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Los Angeles Lakers</t>
@@ -522,7 +516,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,7 +538,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -563,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,7 +601,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -618,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -629,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -640,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,10 +689,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -706,10 +700,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,19 +25,28 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Kyshawn George</t>
+  </si>
+  <si>
+    <t>Cason Wallace</t>
+  </si>
+  <si>
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
-    <t>Jaylen Clark</t>
-  </si>
-  <si>
-    <t>Cason Wallace</t>
-  </si>
-  <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Royce O'Neale</t>
+    <t>Bilal Coulibaly</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Naji Marshall</t>
   </si>
   <si>
     <t>Bam Adebayo</t>
@@ -46,33 +55,24 @@
     <t>Kris Dunn</t>
   </si>
   <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
-    <t>Kyshawn George</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
@@ -82,7 +82,7 @@
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG</t>
+    <t>SG,SF</t>
   </si>
   <si>
     <t>SF,PF</t>
@@ -91,19 +91,25 @@
     <t>PF,C</t>
   </si>
   <si>
-    <t>SG,SF</t>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
   </si>
   <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
-    <t>Minnesota Timberwolves</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
   </si>
   <si>
     <t>Miami Heat</t>
@@ -112,28 +118,13 @@
     <t>LA Clippers</t>
   </si>
   <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
   </si>
 </sst>
 </file>
@@ -538,7 +529,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -557,10 +548,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,10 +559,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +570,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +581,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +592,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +603,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +614,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +625,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +636,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +647,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +658,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,10 +669,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -703,7 +694,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,48 +28,48 @@
     <t>Jamal Murray</t>
   </si>
   <si>
-    <t>Kyshawn George</t>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Naji Marshall</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Bam Adebayo</t>
+  </si>
+  <si>
+    <t>Donovan Clingan</t>
+  </si>
+  <si>
+    <t>Kris Dunn</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
     <t>Cason Wallace</t>
   </si>
   <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Bilal Coulibaly</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Naji Marshall</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Kris Dunn</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>John Collins</t>
-  </si>
-  <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
@@ -85,46 +85,61 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
     <t>PF,C</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
     <t>Washington Wizards</t>
   </si>
   <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
     <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
   </si>
 </sst>
 </file>
@@ -507,7 +522,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -515,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -526,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -537,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -551,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -559,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -573,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -581,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -592,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -603,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -614,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -625,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -636,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -647,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -661,7 +676,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -672,7 +687,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -680,10 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -694,7 +709,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,60 +25,57 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Cason Wallace</t>
+  </si>
+  <si>
+    <t>Dennis Schröder</t>
+  </si>
+  <si>
     <t>Jamal Murray</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Naji Marshall</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Donovan Clingan</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Kris Dunn</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
   </si>
   <si>
     <t>Buddy Hield</t>
   </si>
   <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
-    <t>Naji Marshall</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Bam Adebayo</t>
-  </si>
-  <si>
-    <t>Donovan Clingan</t>
-  </si>
-  <si>
-    <t>Kris Dunn</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
+    <t>Jordan Clarkson</t>
+  </si>
+  <si>
+    <t>Lauri Markkanen</t>
   </si>
   <si>
     <t>John Collins</t>
   </si>
   <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Cason Wallace</t>
-  </si>
-  <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -91,55 +88,49 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF</t>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Denver Nuggets</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
     <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
   </si>
 </sst>
 </file>
@@ -497,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,7 +656,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +667,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,21 +686,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/NSY.xlsx
+++ b/yahoo/NSY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,69 +28,69 @@
     <t>Cason Wallace</t>
   </si>
   <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>Jamal Murray</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Naji Marshall</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
+    <t>Buddy Hield</t>
+  </si>
+  <si>
+    <t>Donovan Clingan</t>
+  </si>
+  <si>
+    <t>Alperen Sengün</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma</t>
+  </si>
+  <si>
+    <t>Kris Dunn</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
     <t>Dennis Schröder</t>
   </si>
   <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Naji Marshall</t>
-  </si>
-  <si>
-    <t>Dillon Brooks</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
-    <t>Kyle Kuzma</t>
-  </si>
-  <si>
-    <t>Donovan Clingan</t>
-  </si>
-  <si>
-    <t>Alperen Sengün</t>
-  </si>
-  <si>
-    <t>Kris Dunn</t>
-  </si>
-  <si>
-    <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>Jordan Poole</t>
-  </si>
-  <si>
-    <t>Buddy Hield</t>
+    <t>Rui Hachimura</t>
   </si>
   <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
     <t>John Collins</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
+    <t>C</t>
   </si>
   <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
@@ -100,34 +100,37 @@
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
+    <t>Los Angeles Lakers</t>
   </si>
   <si>
     <t>Utah Jazz</t>
@@ -565,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -576,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -587,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -598,7 +601,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -609,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -620,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -631,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -642,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -664,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -675,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,7 +692,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
